--- a/biology/Botanique/Fau_de_Verzy/Fau_de_Verzy.xlsx
+++ b/biology/Botanique/Fau_de_Verzy/Fau_de_Verzy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fau de Verzy (Fagus sylvatica var. tortuosa) est un hêtre tortillard qui pousse en forêt de Verzy près de Reims en France.
 </t>
@@ -511,7 +523,9 @@
           <t>Le fau</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « fau » (pluriel : faux) désignait en ancien français l'arbre nommé, selon les régions et leur forêt, soit « fayard »  « faye » ou «foy» (d'origine latine), soit  « hêtre » (d'origine germanique), deux termes qui partagent une origine indo-européenne commune. Ou bien, par continuité celtique (peuple gaulois des Rèmes), avec l'irlandais "feá" [note 1].
 Le fau ne dépasse pas quatre à cinq mètres de haut. En été, il étale ses feuilles en un parasol très dense, pouvant aller jusqu'à former une sorte d'igloo de feuilles. En hiver, son architecture « tourmentée » apparait : troncs et branches tordus, coudés, torsadés, branches terminales retombant jusqu'au sol.
